--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -546,10 +546,10 @@
         <v>0.044652</v>
       </c>
       <c r="I2">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J2">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N2">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q2">
-        <v>0.03509612470666666</v>
+        <v>0.014808225556</v>
       </c>
       <c r="R2">
-        <v>0.31586512236</v>
+        <v>0.133274030004</v>
       </c>
       <c r="S2">
-        <v>0.2994900476490418</v>
+        <v>0.09268307283412133</v>
       </c>
       <c r="T2">
-        <v>0.2994900476490417</v>
+        <v>0.09268307283412133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.044652</v>
       </c>
       <c r="I3">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J3">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q3">
         <v>0.02460565824666667</v>
@@ -638,10 +638,10 @@
         <v>0.22145092422</v>
       </c>
       <c r="S3">
-        <v>0.2099704688857125</v>
+        <v>0.1540041382259524</v>
       </c>
       <c r="T3">
-        <v>0.2099704688857125</v>
+        <v>0.1540041382259524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.044652</v>
       </c>
       <c r="I4">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J4">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N4">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q4">
-        <v>0.00503049432</v>
+        <v>0.026030493644</v>
       </c>
       <c r="R4">
-        <v>0.04527444888</v>
+        <v>0.234274442796</v>
       </c>
       <c r="S4">
-        <v>0.04292733161245156</v>
+        <v>0.162922027976367</v>
       </c>
       <c r="T4">
-        <v>0.04292733161245156</v>
+        <v>0.162922027976367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.044652</v>
       </c>
       <c r="I5">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J5">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N5">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q5">
-        <v>0.01230549087866667</v>
+        <v>0.01081781523333333</v>
       </c>
       <c r="R5">
-        <v>0.110749417908</v>
+        <v>0.0973603371</v>
       </c>
       <c r="S5">
-        <v>0.1050079483247527</v>
+        <v>0.06770752872351106</v>
       </c>
       <c r="T5">
-        <v>0.1050079483247527</v>
+        <v>0.06770752872351106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.044652</v>
       </c>
       <c r="I6">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J6">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N6">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q6">
-        <v>0.007774890582666665</v>
+        <v>0.02400866100666666</v>
       </c>
       <c r="R6">
-        <v>0.06997401524399999</v>
+        <v>0.21607794906</v>
       </c>
       <c r="S6">
-        <v>0.06634642344505394</v>
+        <v>0.1502675974454623</v>
       </c>
       <c r="T6">
-        <v>0.06634642344505394</v>
+        <v>0.1502675974454623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H7">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I7">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J7">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N7">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q7">
-        <v>0.01339645143555556</v>
+        <v>0.008787367924333333</v>
       </c>
       <c r="R7">
-        <v>0.12056806292</v>
+        <v>0.079086311319</v>
       </c>
       <c r="S7">
-        <v>0.1143175752962973</v>
+        <v>0.05499917989979648</v>
       </c>
       <c r="T7">
-        <v>0.1143175752962973</v>
+        <v>0.05499917989979649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H8">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I8">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J8">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>4.959485</v>
       </c>
       <c r="O8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q8">
-        <v>0.009392162482222223</v>
+        <v>0.01460127489388889</v>
       </c>
       <c r="R8">
-        <v>0.08452946234</v>
+        <v>0.131411474045</v>
       </c>
       <c r="S8">
-        <v>0.08014728728137785</v>
+        <v>0.09138779115320836</v>
       </c>
       <c r="T8">
-        <v>0.08014728728137785</v>
+        <v>0.09138779115320837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H9">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I9">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J9">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N9">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q9">
-        <v>0.00192017704</v>
+        <v>0.01544678827566667</v>
       </c>
       <c r="R9">
-        <v>0.01728159336</v>
+        <v>0.139021094481</v>
       </c>
       <c r="S9">
-        <v>0.01638568126853499</v>
+        <v>0.09667976743012173</v>
       </c>
       <c r="T9">
-        <v>0.01638568126853499</v>
+        <v>0.09667976743012174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H10">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I10">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J10">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N10">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q10">
-        <v>0.004697097252888889</v>
+        <v>0.006419413469444445</v>
       </c>
       <c r="R10">
-        <v>0.042273875276</v>
+        <v>0.057774721225</v>
       </c>
       <c r="S10">
-        <v>0.04008231369808933</v>
+        <v>0.04017841056586206</v>
       </c>
       <c r="T10">
-        <v>0.04008231369808933</v>
+        <v>0.04017841056586206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H11">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I11">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J11">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N11">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q11">
-        <v>0.002967733474222222</v>
+        <v>0.01424701000388889</v>
       </c>
       <c r="R11">
-        <v>0.026709601268</v>
+        <v>0.128223090035</v>
       </c>
       <c r="S11">
-        <v>0.02532492253868807</v>
+        <v>0.08917048574559738</v>
       </c>
       <c r="T11">
-        <v>0.02532492253868807</v>
+        <v>0.0891704857455974</v>
       </c>
     </row>
   </sheetData>
